--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il13-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il13-Il4ra.xlsx
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il13</t>
+  </si>
+  <si>
+    <t>Il4ra</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il13</t>
-  </si>
-  <si>
-    <t>Il4ra</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
         <v>0.962421</v>
       </c>
       <c r="I2">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J2">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.41769233333333</v>
+        <v>34.08558233333333</v>
       </c>
       <c r="N2">
-        <v>106.253077</v>
+        <v>102.256747</v>
       </c>
       <c r="O2">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="P2">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="Q2">
-        <v>11.36224362437967</v>
+        <v>10.93489341160966</v>
       </c>
       <c r="R2">
-        <v>102.260192619417</v>
+        <v>98.41404070448699</v>
       </c>
       <c r="S2">
-        <v>0.3026658567033254</v>
+        <v>0.3157831761975035</v>
       </c>
       <c r="T2">
-        <v>0.3026658567033254</v>
+        <v>0.3157831761975035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.962421</v>
       </c>
       <c r="I3">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J3">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>30.255923</v>
       </c>
       <c r="N3">
-        <v>90.76776899999999</v>
+        <v>90.767769</v>
       </c>
       <c r="O3">
-        <v>0.3062438890999955</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="P3">
-        <v>0.3062438890999956</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="Q3">
-        <v>9.706311889860999</v>
+        <v>9.706311889861</v>
       </c>
       <c r="R3">
-        <v>87.35680700874899</v>
+        <v>87.356807008749</v>
       </c>
       <c r="S3">
-        <v>0.2585553787344392</v>
+        <v>0.2803036008096492</v>
       </c>
       <c r="T3">
-        <v>0.2585553787344393</v>
+        <v>0.2803036008096492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,10 +667,10 @@
         <v>0.962421</v>
       </c>
       <c r="I4">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J4">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.658912</v>
+        <v>8.754337666666666</v>
       </c>
       <c r="N4">
-        <v>10.976736</v>
+        <v>26.263013</v>
       </c>
       <c r="O4">
-        <v>0.03703471352550187</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="P4">
-        <v>0.03703471352550188</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="Q4">
-        <v>1.173804581984</v>
+        <v>2.808452803830333</v>
       </c>
       <c r="R4">
-        <v>10.564241237856</v>
+        <v>25.276075234473</v>
       </c>
       <c r="S4">
-        <v>0.0312676423031611</v>
+        <v>0.08110386751943444</v>
       </c>
       <c r="T4">
-        <v>0.03126764230316111</v>
+        <v>0.08110386751943444</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +729,10 @@
         <v>0.962421</v>
       </c>
       <c r="I5">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131627</v>
       </c>
       <c r="J5">
-        <v>0.8442793078885408</v>
+        <v>0.9352601111131628</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.46429466666667</v>
+        <v>27.85597433333334</v>
       </c>
       <c r="N5">
-        <v>88.39288400000001</v>
+        <v>83.56792300000001</v>
       </c>
       <c r="O5">
-        <v>0.2982311988402488</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="P5">
-        <v>0.2982311988402489</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="Q5">
-        <v>9.452351979129334</v>
+        <v>8.936391557953668</v>
       </c>
       <c r="R5">
-        <v>85.07116781216401</v>
+        <v>80.42752402158301</v>
       </c>
       <c r="S5">
-        <v>0.2517904301476151</v>
+        <v>0.2580694665865755</v>
       </c>
       <c r="T5">
-        <v>0.2517904301476152</v>
+        <v>0.2580694665865755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H6">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I6">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J6">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.41769233333333</v>
+        <v>34.08558233333333</v>
       </c>
       <c r="N6">
-        <v>106.253077</v>
+        <v>102.256747</v>
       </c>
       <c r="O6">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="P6">
-        <v>0.3584901985342538</v>
+        <v>0.3376420874206352</v>
       </c>
       <c r="Q6">
-        <v>2.095676661260777</v>
+        <v>0.7569271650155555</v>
       </c>
       <c r="R6">
-        <v>18.861089951347</v>
+        <v>6.812344485139999</v>
       </c>
       <c r="S6">
-        <v>0.05582434183092844</v>
+        <v>0.02185891122313175</v>
       </c>
       <c r="T6">
-        <v>0.05582434183092845</v>
+        <v>0.02185891122313175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H7">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I7">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J7">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>30.255923</v>
       </c>
       <c r="N7">
-        <v>90.76776899999999</v>
+        <v>90.767769</v>
       </c>
       <c r="O7">
-        <v>0.3062438890999955</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="P7">
-        <v>0.3062438890999956</v>
+        <v>0.2997065709089496</v>
       </c>
       <c r="Q7">
-        <v>1.790253049217666</v>
+        <v>0.6718831967533333</v>
       </c>
       <c r="R7">
-        <v>16.112277442959</v>
+        <v>6.04694877078</v>
       </c>
       <c r="S7">
-        <v>0.04768851036555628</v>
+        <v>0.01940297009930044</v>
       </c>
       <c r="T7">
-        <v>0.04768851036555629</v>
+        <v>0.01940297009930044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H8">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I8">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J8">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.658912</v>
+        <v>8.754337666666666</v>
       </c>
       <c r="N8">
-        <v>10.976736</v>
+        <v>26.263013</v>
       </c>
       <c r="O8">
-        <v>0.03703471352550187</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="P8">
-        <v>0.03703471352550188</v>
+        <v>0.08671797990283496</v>
       </c>
       <c r="Q8">
-        <v>0.2164990426773334</v>
+        <v>0.1944046584511111</v>
       </c>
       <c r="R8">
-        <v>1.948491384096</v>
+        <v>1.74964192606</v>
       </c>
       <c r="S8">
-        <v>0.005767071222340773</v>
+        <v>0.005614112383400531</v>
       </c>
       <c r="T8">
-        <v>0.005767071222340774</v>
+        <v>0.005614112383400531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.05917033333333333</v>
+        <v>0.02220666666666667</v>
       </c>
       <c r="H9">
-        <v>0.177511</v>
+        <v>0.06662</v>
       </c>
       <c r="I9">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="J9">
-        <v>0.1557206921114593</v>
+        <v>0.06473988888683736</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.46429466666667</v>
+        <v>27.85597433333334</v>
       </c>
       <c r="N9">
-        <v>88.39288400000001</v>
+        <v>83.56792300000001</v>
       </c>
       <c r="O9">
-        <v>0.2982311988402488</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="P9">
-        <v>0.2982311988402489</v>
+        <v>0.2759333617675802</v>
       </c>
       <c r="Q9">
-        <v>1.743412136858222</v>
+        <v>0.6185883366955556</v>
       </c>
       <c r="R9">
-        <v>15.690709231724</v>
+        <v>5.56729503026</v>
       </c>
       <c r="S9">
-        <v>0.04644076869263378</v>
+        <v>0.01786389518100464</v>
       </c>
       <c r="T9">
-        <v>0.04644076869263379</v>
+        <v>0.01786389518100464</v>
       </c>
     </row>
   </sheetData>
